--- a/routes.xlsx
+++ b/routes.xlsx
@@ -52,253 +52,253 @@
     <x:t>顶级菜单</x:t>
   </x:si>
   <x:si>
-    <x:t>专题研判分析</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/analysis</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>否</x:t>
-  </x:si>
-  <x:si>
-    <x:t>否</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>专题研判分析</x:t>
-  </x:si>
-  <x:si>
-    <x:t>节点</x:t>
-  </x:si>
-  <x:si>
-    <x:t>流动人口研判分析</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/analysis/population</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>否</x:t>
-  </x:si>
-  <x:si>
-    <x:t>否</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>专题研判分析</x:t>
-  </x:si>
-  <x:si>
-    <x:t>节点</x:t>
-  </x:si>
-  <x:si>
-    <x:t>治安隐患研判分析</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/analysis/quality</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>否</x:t>
-  </x:si>
-  <x:si>
-    <x:t>否</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>专题研判分析</x:t>
-  </x:si>
-  <x:si>
-    <x:t>节点</x:t>
-  </x:si>
-  <x:si>
-    <x:t>综治组织研判分析</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/analysis/organization</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>否</x:t>
-  </x:si>
-  <x:si>
-    <x:t>否</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>专题研判分析</x:t>
-  </x:si>
-  <x:si>
-    <x:t>节点</x:t>
-  </x:si>
-  <x:si>
-    <x:t>社会治安重点场所研判分析</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/analysis/place</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>否</x:t>
-  </x:si>
-  <x:si>
-    <x:t>否</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>专题研判分析</x:t>
-  </x:si>
-  <x:si>
-    <x:t>节点</x:t>
-  </x:si>
-  <x:si>
-    <x:t>重点青少年研判分析</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/analysis/teen</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>否</x:t>
-  </x:si>
-  <x:si>
-    <x:t>否</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>专题研判分析</x:t>
-  </x:si>
-  <x:si>
-    <x:t>节点</x:t>
-  </x:si>
-  <x:si>
-    <x:t>校园及周边安全研判分析</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/analysis/school</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>否</x:t>
-  </x:si>
-  <x:si>
-    <x:t>否</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>专题研判分析</x:t>
-  </x:si>
-  <x:si>
-    <x:t>节点</x:t>
-  </x:si>
-  <x:si>
-    <x:t>两新组织研判分析</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/analysis/twoorgs</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>否</x:t>
-  </x:si>
-  <x:si>
-    <x:t>否</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>专题研判分析</x:t>
-  </x:si>
-  <x:si>
-    <x:t>节点</x:t>
-  </x:si>
-  <x:si>
-    <x:t>任务清单研判分析</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/analysis/task</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>否</x:t>
-  </x:si>
-  <x:si>
-    <x:t>否</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>专题研判分析</x:t>
-  </x:si>
-  <x:si>
-    <x:t>节点</x:t>
-  </x:si>
-  <x:si>
-    <x:t>事件处理研判分析</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/analysis/affair</x:t>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>节点</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>节点</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>节点</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>节点</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>节点</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>节点</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>节点</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>节点</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>节点</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
   </x:si>
   <x:si>
     <x:t/>
@@ -322,334 +322,334 @@
     <x:t>顶级菜单</x:t>
   </x:si>
   <x:si>
-    <x:t>决策参考报告</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/report</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>否</x:t>
-  </x:si>
-  <x:si>
-    <x:t>否</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>决策参考报告</x:t>
-  </x:si>
-  <x:si>
-    <x:t>节点</x:t>
-  </x:si>
-  <x:si>
-    <x:t>报告管理</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/report/regulate</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>否</x:t>
-  </x:si>
-  <x:si>
-    <x:t>否</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>决策参考报告</x:t>
-  </x:si>
-  <x:si>
-    <x:t>节点</x:t>
-  </x:si>
-  <x:si>
-    <x:t>模板管理</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/report/stencil</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>否</x:t>
-  </x:si>
-  <x:si>
-    <x:t>否</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>决策参考报告</x:t>
-  </x:si>
-  <x:si>
-    <x:t>节点</x:t>
-  </x:si>
-  <x:si>
-    <x:t>新增模板</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/report/newstencil</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>否</x:t>
-  </x:si>
-  <x:si>
-    <x:t>否</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>决策参考报告</x:t>
-  </x:si>
-  <x:si>
-    <x:t>节点</x:t>
-  </x:si>
-  <x:si>
-    <x:t>预览模板</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/report/viewstencil</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>否</x:t>
-  </x:si>
-  <x:si>
-    <x:t>否</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>决策参考报告</x:t>
-  </x:si>
-  <x:si>
-    <x:t>节点</x:t>
-  </x:si>
-  <x:si>
-    <x:t>编辑模板</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/report/editstencil</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>否</x:t>
-  </x:si>
-  <x:si>
-    <x:t>否</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>决策参考报告</x:t>
-  </x:si>
-  <x:si>
-    <x:t>节点</x:t>
-  </x:si>
-  <x:si>
-    <x:t>综治中心服务概况</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/report/service</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>否</x:t>
-  </x:si>
-  <x:si>
-    <x:t>否</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>决策参考报告</x:t>
-  </x:si>
-  <x:si>
-    <x:t>节点</x:t>
-  </x:si>
-  <x:si>
-    <x:t>治安研判形势分析</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/report/judge</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>否</x:t>
-  </x:si>
-  <x:si>
-    <x:t>否</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>决策参考报告</x:t>
-  </x:si>
-  <x:si>
-    <x:t>节点</x:t>
-  </x:si>
-  <x:si>
-    <x:t>治安隐患排查分析</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/report/risk</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>否</x:t>
-  </x:si>
-  <x:si>
-    <x:t>否</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>决策参考报告</x:t>
-  </x:si>
-  <x:si>
-    <x:t>节点</x:t>
-  </x:si>
-  <x:si>
-    <x:t>矛盾纠纷情况分析</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/report/paradox</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>否</x:t>
-  </x:si>
-  <x:si>
-    <x:t>否</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>决策参考报告</x:t>
-  </x:si>
-  <x:si>
-    <x:t>节点</x:t>
-  </x:si>
-  <x:si>
-    <x:t>雪亮工程建设情况分析</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/report/project</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>否</x:t>
-  </x:si>
-  <x:si>
-    <x:t>否</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>决策参考报告</x:t>
-  </x:si>
-  <x:si>
-    <x:t>节点</x:t>
-  </x:si>
-  <x:si>
-    <x:t>重点特殊人群服务分析</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/report/focusgroup</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>否</x:t>
-  </x:si>
-  <x:si>
-    <x:t>否</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>决策参考报告</x:t>
-  </x:si>
-  <x:si>
-    <x:t>节点</x:t>
-  </x:si>
-  <x:si>
-    <x:t>结论分析</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/report/result</x:t>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>节点</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>节点</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>节点</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>节点</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>节点</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>节点</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>节点</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>节点</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>节点</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>节点</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>节点</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>节点</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
   </x:si>
   <x:si>
     <x:t/>
@@ -673,37 +673,37 @@
     <x:t>顶级菜单</x:t>
   </x:si>
   <x:si>
-    <x:t>安全管理</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/safety</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>否</x:t>
-  </x:si>
-  <x:si>
-    <x:t>否</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>安全管理</x:t>
-  </x:si>
-  <x:si>
-    <x:t>节点</x:t>
-  </x:si>
-  <x:si>
-    <x:t>安全审计</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/safety/audit</x:t>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>节点</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
   </x:si>
   <x:si>
     <x:t/>

--- a/routes.xlsx
+++ b/routes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316">
   <x:si>
     <x:t>父菜单</x:t>
   </x:si>
@@ -52,265 +52,454 @@
     <x:t>顶级菜单</x:t>
   </x:si>
   <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>否</x:t>
-  </x:si>
-  <x:si>
-    <x:t>否</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
+    <x:t>重点人群建库</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>重点人群建库</x:t>
   </x:si>
   <x:si>
     <x:t>节点</x:t>
   </x:si>
   <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>否</x:t>
-  </x:si>
-  <x:si>
-    <x:t>否</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
+    <x:t>重点人群信息管理</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t>nav_maincommand</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>重点人群信息管理</x:t>
+  </x:si>
+  <x:si>
+    <x:t>叶子</x:t>
+  </x:si>
+  <x:si>
+    <x:t>重点人群信息管理</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/keycordinfomanage</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>重点人群建库</x:t>
   </x:si>
   <x:si>
     <x:t>节点</x:t>
   </x:si>
   <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>否</x:t>
-  </x:si>
-  <x:si>
-    <x:t>否</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
+    <x:t>重点人像建模管理</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t>nav_maincommand</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>重点人像建模管理</x:t>
+  </x:si>
+  <x:si>
+    <x:t>叶子</x:t>
+  </x:si>
+  <x:si>
+    <x:t>重点人群建模审批</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/imagemodel/modelingaudit</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>重点人像建模管理</x:t>
+  </x:si>
+  <x:si>
+    <x:t>叶子</x:t>
+  </x:si>
+  <x:si>
+    <x:t>重点人像建模任务</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/imagemodel/modelingtask</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>重点人群建库</x:t>
   </x:si>
   <x:si>
     <x:t>节点</x:t>
   </x:si>
   <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>否</x:t>
-  </x:si>
-  <x:si>
-    <x:t>否</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
+    <x:t>标签管理</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t>nav_maincommand</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>标签管理</x:t>
+  </x:si>
+  <x:si>
+    <x:t>叶子</x:t>
+  </x:si>
+  <x:si>
+    <x:t>标签管理</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/labelmanage</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>重点人群建库</x:t>
   </x:si>
   <x:si>
     <x:t>节点</x:t>
   </x:si>
   <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>否</x:t>
-  </x:si>
-  <x:si>
-    <x:t>否</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
+    <x:t>人员辖区管理</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t>nav_maincommand</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>人员辖区管理</x:t>
+  </x:si>
+  <x:si>
+    <x:t>叶子</x:t>
+  </x:si>
+  <x:si>
+    <x:t>批量关联管理</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/areamange/batchcontact</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>人员辖区管理</x:t>
+  </x:si>
+  <x:si>
+    <x:t>叶子</x:t>
+  </x:si>
+  <x:si>
+    <x:t>未分配人员管理</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/areamange/unassignedperson</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>顶级菜单</x:t>
+  </x:si>
+  <x:si>
+    <x:t>数据采集</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>数据采集</x:t>
   </x:si>
   <x:si>
     <x:t>节点</x:t>
   </x:si>
   <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>否</x:t>
-  </x:si>
-  <x:si>
-    <x:t>否</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
+    <x:t>离线任务采集</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/iframe/http://10.8.191.62:7080/web/index.html#/Data-development/taskdev</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t>nav_maincommand</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>数据采集</x:t>
   </x:si>
   <x:si>
     <x:t>节点</x:t>
   </x:si>
   <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>否</x:t>
-  </x:si>
-  <x:si>
-    <x:t>否</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
+    <x:t>文件采集</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/iframe/http://10.8.191.62:7080/web/index.html#/Data-development/collect</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t>nav_maincommand</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>数据采集</x:t>
   </x:si>
   <x:si>
     <x:t>节点</x:t>
   </x:si>
   <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>否</x:t>
-  </x:si>
-  <x:si>
-    <x:t>否</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
+    <x:t>实时任务采集</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/iframe/http://10.8.191.62:7080/web/index.html#/Data-development/real-time-task</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t>nav_maincommand</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>数据采集</x:t>
   </x:si>
   <x:si>
     <x:t>节点</x:t>
   </x:si>
   <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>否</x:t>
-  </x:si>
-  <x:si>
-    <x:t>否</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
+    <x:t>SQL模板管理</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/iframe/http://10.8.191.62:7080/web/index.html#/Data-development/sql-template</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t>nav_maincommand</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>数据采集</x:t>
   </x:si>
   <x:si>
     <x:t>节点</x:t>
   </x:si>
   <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>否</x:t>
-  </x:si>
-  <x:si>
-    <x:t>否</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
+    <x:t>任务标签</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/iframe/http://10.8.191.62:7080/web/index.html#/Data-development/task-tag</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t>nav_maincommand</x:t>
   </x:si>
   <x:si>
     <x:t/>
@@ -322,400 +511,454 @@
     <x:t>顶级菜单</x:t>
   </x:si>
   <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>否</x:t>
-  </x:si>
-  <x:si>
-    <x:t>否</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
+    <x:t>数据管理</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>数据管理</x:t>
   </x:si>
   <x:si>
     <x:t>节点</x:t>
   </x:si>
   <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>否</x:t>
-  </x:si>
-  <x:si>
-    <x:t>否</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
+    <x:t>元数据管理</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/iframe/http://10.8.191.62:7080/web/index.html#/Data-management/mdata</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t>nav_maincommand</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>数据管理</x:t>
   </x:si>
   <x:si>
     <x:t>节点</x:t>
   </x:si>
   <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>否</x:t>
-  </x:si>
-  <x:si>
-    <x:t>否</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
+    <x:t>数据源管理</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/iframe/http://10.8.191.62:7080/web/index.html#/Data-management/datasource</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t>nav_maincommand</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>数据管理</x:t>
   </x:si>
   <x:si>
     <x:t>节点</x:t>
   </x:si>
   <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>否</x:t>
-  </x:si>
-  <x:si>
-    <x:t>否</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
+    <x:t>文件管理</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/iframe/http://10.8.191.62:7080/web/index.html#/Data-management/file-management</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t>nav_maincommand</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>数据管理</x:t>
   </x:si>
   <x:si>
     <x:t>节点</x:t>
   </x:si>
   <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>否</x:t>
-  </x:si>
-  <x:si>
-    <x:t>否</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
+    <x:t>数据字典管理</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/iframe/http://10.8.191.62:7080/web/index.html#/Data-management/data-dictionary</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t>nav_maincommand</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>顶级菜单</x:t>
+  </x:si>
+  <x:si>
+    <x:t>数据资源</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>数据资源</x:t>
   </x:si>
   <x:si>
     <x:t>节点</x:t>
   </x:si>
   <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>否</x:t>
-  </x:si>
-  <x:si>
-    <x:t>否</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
+    <x:t>我的资源</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/iframe/http://10.8.191.62:7080/web/index.html#/Data-catalogue/my-interface</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t>nav_maincommand</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>顶级菜单</x:t>
+  </x:si>
+  <x:si>
+    <x:t>综合管理</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>综合管理</x:t>
   </x:si>
   <x:si>
     <x:t>节点</x:t>
   </x:si>
   <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>否</x:t>
-  </x:si>
-  <x:si>
-    <x:t>否</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
+    <x:t>存储预警</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t>nav_maincommand</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>存储预警</x:t>
+  </x:si>
+  <x:si>
+    <x:t>叶子</x:t>
+  </x:si>
+  <x:si>
+    <x:t>存储预警</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/sys/warn/warn</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t>nav_maincommand</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>存储预警</x:t>
+  </x:si>
+  <x:si>
+    <x:t>叶子</x:t>
+  </x:si>
+  <x:si>
+    <x:t>自动备份</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/sys/warn/backup</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t>nav_maincommand</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>存储预警</x:t>
+  </x:si>
+  <x:si>
+    <x:t>叶子</x:t>
+  </x:si>
+  <x:si>
+    <x:t>预警记录</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/sys/warn/record</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t>nav_maincommand</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>存储预警</x:t>
+  </x:si>
+  <x:si>
+    <x:t>叶子</x:t>
+  </x:si>
+  <x:si>
+    <x:t>回滚记录</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/sys/warn/rollback</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t>nav_maincommand</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>综合管理</x:t>
   </x:si>
   <x:si>
     <x:t>节点</x:t>
   </x:si>
   <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>否</x:t>
-  </x:si>
-  <x:si>
-    <x:t>否</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>节点</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>否</x:t>
-  </x:si>
-  <x:si>
-    <x:t>否</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>节点</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>否</x:t>
-  </x:si>
-  <x:si>
-    <x:t>否</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>节点</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>否</x:t>
-  </x:si>
-  <x:si>
-    <x:t>否</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>节点</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>否</x:t>
-  </x:si>
-  <x:si>
-    <x:t>否</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>节点</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>否</x:t>
-  </x:si>
-  <x:si>
-    <x:t>否</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>顶级菜单</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>否</x:t>
-  </x:si>
-  <x:si>
-    <x:t>否</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>节点</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>否</x:t>
-  </x:si>
-  <x:si>
-    <x:t>否</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
+    <x:t>日志管理</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t>nav_maincommand</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>日志管理</x:t>
+  </x:si>
+  <x:si>
+    <x:t>叶子</x:t>
+  </x:si>
+  <x:si>
+    <x:t>登录日志</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/sys/log/access</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t>nav_maincommand</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>日志管理</x:t>
+  </x:si>
+  <x:si>
+    <x:t>叶子</x:t>
+  </x:si>
+  <x:si>
+    <x:t>业务日志</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/sys/log/biz</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t>nav_maincommand</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>日志管理</x:t>
+  </x:si>
+  <x:si>
+    <x:t>叶子</x:t>
+  </x:si>
+  <x:si>
+    <x:t>错误日志</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/sys/log/err</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t>nav_maincommand</x:t>
   </x:si>
   <x:si>
     <x:t/>
@@ -1201,7 +1444,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E4" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
         <x:v>32</x:v>
@@ -1233,7 +1476,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E5" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F5" s="0" t="s">
         <x:v>41</x:v>
@@ -1265,7 +1508,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E6" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F6" s="0" t="s">
         <x:v>50</x:v>
@@ -1297,7 +1540,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E7" s="0" t="n">
-        <x:v>50</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F7" s="0" t="s">
         <x:v>59</x:v>
@@ -1329,7 +1572,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E8" s="0" t="n">
-        <x:v>60</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F8" s="0" t="s">
         <x:v>68</x:v>
@@ -1361,7 +1604,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E9" s="0" t="n">
-        <x:v>70</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F9" s="0" t="s">
         <x:v>77</x:v>
@@ -1393,7 +1636,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E10" s="0" t="n">
-        <x:v>80</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F10" s="0" t="s">
         <x:v>86</x:v>
@@ -1425,7 +1668,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E11" s="0" t="n">
-        <x:v>90</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F11" s="0" t="s">
         <x:v>95</x:v>
@@ -1489,7 +1732,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E13" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F13" s="0" t="s">
         <x:v>113</x:v>
@@ -1521,7 +1764,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E14" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F14" s="0" t="s">
         <x:v>122</x:v>
@@ -1553,7 +1796,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F15" s="0" t="s">
         <x:v>131</x:v>
@@ -1585,7 +1828,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="E16" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F16" s="0" t="s">
         <x:v>140</x:v>
@@ -1617,7 +1860,7 @@
         <x:v>148</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>50</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F17" s="0" t="s">
         <x:v>149</x:v>
@@ -1649,7 +1892,7 @@
         <x:v>157</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>60</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="F18" s="0" t="s">
         <x:v>158</x:v>
@@ -1681,7 +1924,7 @@
         <x:v>166</x:v>
       </x:c>
       <x:c r="E19" s="0" t="n">
-        <x:v>70</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F19" s="0" t="s">
         <x:v>167</x:v>
@@ -1713,7 +1956,7 @@
         <x:v>175</x:v>
       </x:c>
       <x:c r="E20" s="0" t="n">
-        <x:v>80</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F20" s="0" t="s">
         <x:v>176</x:v>
@@ -1745,7 +1988,7 @@
         <x:v>184</x:v>
       </x:c>
       <x:c r="E21" s="0" t="n">
-        <x:v>90</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F21" s="0" t="s">
         <x:v>185</x:v>
@@ -1777,7 +2020,7 @@
         <x:v>193</x:v>
       </x:c>
       <x:c r="E22" s="0" t="n">
-        <x:v>100</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F22" s="0" t="s">
         <x:v>194</x:v>
@@ -1809,7 +2052,7 @@
         <x:v>202</x:v>
       </x:c>
       <x:c r="E23" s="0" t="n">
-        <x:v>110</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F23" s="0" t="s">
         <x:v>203</x:v>
@@ -1841,7 +2084,7 @@
         <x:v>211</x:v>
       </x:c>
       <x:c r="E24" s="0" t="n">
-        <x:v>120</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F24" s="0" t="s">
         <x:v>212</x:v>
@@ -1873,7 +2116,7 @@
         <x:v>220</x:v>
       </x:c>
       <x:c r="E25" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F25" s="0" t="s">
         <x:v>221</x:v>
@@ -1905,7 +2148,7 @@
         <x:v>229</x:v>
       </x:c>
       <x:c r="E26" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="F26" s="0" t="s">
         <x:v>230</x:v>
@@ -1921,6 +2164,294 @@
       </x:c>
       <x:c r="J26" s="0" t="s">
         <x:v>234</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:10">
+      <x:c r="A27" s="0" t="s">
+        <x:v>235</x:v>
+      </x:c>
+      <x:c r="B27" s="0" t="s">
+        <x:v>236</x:v>
+      </x:c>
+      <x:c r="C27" s="0" t="s">
+        <x:v>237</x:v>
+      </x:c>
+      <x:c r="D27" s="0" t="s">
+        <x:v>238</x:v>
+      </x:c>
+      <x:c r="E27" s="0" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F27" s="0" t="s">
+        <x:v>239</x:v>
+      </x:c>
+      <x:c r="G27" s="0" t="s">
+        <x:v>240</x:v>
+      </x:c>
+      <x:c r="H27" s="0" t="s">
+        <x:v>241</x:v>
+      </x:c>
+      <x:c r="I27" s="0" t="s">
+        <x:v>242</x:v>
+      </x:c>
+      <x:c r="J27" s="0" t="s">
+        <x:v>243</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:10">
+      <x:c r="A28" s="0" t="s">
+        <x:v>244</x:v>
+      </x:c>
+      <x:c r="B28" s="0" t="s">
+        <x:v>245</x:v>
+      </x:c>
+      <x:c r="C28" s="0" t="s">
+        <x:v>246</x:v>
+      </x:c>
+      <x:c r="D28" s="0" t="s">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="E28" s="0" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F28" s="0" t="s">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="G28" s="0" t="s">
+        <x:v>249</x:v>
+      </x:c>
+      <x:c r="H28" s="0" t="s">
+        <x:v>250</x:v>
+      </x:c>
+      <x:c r="I28" s="0" t="s">
+        <x:v>251</x:v>
+      </x:c>
+      <x:c r="J28" s="0" t="s">
+        <x:v>252</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:10">
+      <x:c r="A29" s="0" t="s">
+        <x:v>253</x:v>
+      </x:c>
+      <x:c r="B29" s="0" t="s">
+        <x:v>254</x:v>
+      </x:c>
+      <x:c r="C29" s="0" t="s">
+        <x:v>255</x:v>
+      </x:c>
+      <x:c r="D29" s="0" t="s">
+        <x:v>256</x:v>
+      </x:c>
+      <x:c r="E29" s="0" t="n">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F29" s="0" t="s">
+        <x:v>257</x:v>
+      </x:c>
+      <x:c r="G29" s="0" t="s">
+        <x:v>258</x:v>
+      </x:c>
+      <x:c r="H29" s="0" t="s">
+        <x:v>259</x:v>
+      </x:c>
+      <x:c r="I29" s="0" t="s">
+        <x:v>260</x:v>
+      </x:c>
+      <x:c r="J29" s="0" t="s">
+        <x:v>261</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:10">
+      <x:c r="A30" s="0" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="B30" s="0" t="s">
+        <x:v>263</x:v>
+      </x:c>
+      <x:c r="C30" s="0" t="s">
+        <x:v>264</x:v>
+      </x:c>
+      <x:c r="D30" s="0" t="s">
+        <x:v>265</x:v>
+      </x:c>
+      <x:c r="E30" s="0" t="n">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="F30" s="0" t="s">
+        <x:v>266</x:v>
+      </x:c>
+      <x:c r="G30" s="0" t="s">
+        <x:v>267</x:v>
+      </x:c>
+      <x:c r="H30" s="0" t="s">
+        <x:v>268</x:v>
+      </x:c>
+      <x:c r="I30" s="0" t="s">
+        <x:v>269</x:v>
+      </x:c>
+      <x:c r="J30" s="0" t="s">
+        <x:v>270</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:10">
+      <x:c r="A31" s="0" t="s">
+        <x:v>271</x:v>
+      </x:c>
+      <x:c r="B31" s="0" t="s">
+        <x:v>272</x:v>
+      </x:c>
+      <x:c r="C31" s="0" t="s">
+        <x:v>273</x:v>
+      </x:c>
+      <x:c r="D31" s="0" t="s">
+        <x:v>274</x:v>
+      </x:c>
+      <x:c r="E31" s="0" t="n">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="F31" s="0" t="s">
+        <x:v>275</x:v>
+      </x:c>
+      <x:c r="G31" s="0" t="s">
+        <x:v>276</x:v>
+      </x:c>
+      <x:c r="H31" s="0" t="s">
+        <x:v>277</x:v>
+      </x:c>
+      <x:c r="I31" s="0" t="s">
+        <x:v>278</x:v>
+      </x:c>
+      <x:c r="J31" s="0" t="s">
+        <x:v>279</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:10">
+      <x:c r="A32" s="0" t="s">
+        <x:v>280</x:v>
+      </x:c>
+      <x:c r="B32" s="0" t="s">
+        <x:v>281</x:v>
+      </x:c>
+      <x:c r="C32" s="0" t="s">
+        <x:v>282</x:v>
+      </x:c>
+      <x:c r="D32" s="0" t="s">
+        <x:v>283</x:v>
+      </x:c>
+      <x:c r="E32" s="0" t="n">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F32" s="0" t="s">
+        <x:v>284</x:v>
+      </x:c>
+      <x:c r="G32" s="0" t="s">
+        <x:v>285</x:v>
+      </x:c>
+      <x:c r="H32" s="0" t="s">
+        <x:v>286</x:v>
+      </x:c>
+      <x:c r="I32" s="0" t="s">
+        <x:v>287</x:v>
+      </x:c>
+      <x:c r="J32" s="0" t="s">
+        <x:v>288</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:10">
+      <x:c r="A33" s="0" t="s">
+        <x:v>289</x:v>
+      </x:c>
+      <x:c r="B33" s="0" t="s">
+        <x:v>290</x:v>
+      </x:c>
+      <x:c r="C33" s="0" t="s">
+        <x:v>291</x:v>
+      </x:c>
+      <x:c r="D33" s="0" t="s">
+        <x:v>292</x:v>
+      </x:c>
+      <x:c r="E33" s="0" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F33" s="0" t="s">
+        <x:v>293</x:v>
+      </x:c>
+      <x:c r="G33" s="0" t="s">
+        <x:v>294</x:v>
+      </x:c>
+      <x:c r="H33" s="0" t="s">
+        <x:v>295</x:v>
+      </x:c>
+      <x:c r="I33" s="0" t="s">
+        <x:v>296</x:v>
+      </x:c>
+      <x:c r="J33" s="0" t="s">
+        <x:v>297</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:10">
+      <x:c r="A34" s="0" t="s">
+        <x:v>298</x:v>
+      </x:c>
+      <x:c r="B34" s="0" t="s">
+        <x:v>299</x:v>
+      </x:c>
+      <x:c r="C34" s="0" t="s">
+        <x:v>300</x:v>
+      </x:c>
+      <x:c r="D34" s="0" t="s">
+        <x:v>301</x:v>
+      </x:c>
+      <x:c r="E34" s="0" t="n">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F34" s="0" t="s">
+        <x:v>302</x:v>
+      </x:c>
+      <x:c r="G34" s="0" t="s">
+        <x:v>303</x:v>
+      </x:c>
+      <x:c r="H34" s="0" t="s">
+        <x:v>304</x:v>
+      </x:c>
+      <x:c r="I34" s="0" t="s">
+        <x:v>305</x:v>
+      </x:c>
+      <x:c r="J34" s="0" t="s">
+        <x:v>306</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:10">
+      <x:c r="A35" s="0" t="s">
+        <x:v>307</x:v>
+      </x:c>
+      <x:c r="B35" s="0" t="s">
+        <x:v>308</x:v>
+      </x:c>
+      <x:c r="C35" s="0" t="s">
+        <x:v>309</x:v>
+      </x:c>
+      <x:c r="D35" s="0" t="s">
+        <x:v>310</x:v>
+      </x:c>
+      <x:c r="E35" s="0" t="n">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="F35" s="0" t="s">
+        <x:v>311</x:v>
+      </x:c>
+      <x:c r="G35" s="0" t="s">
+        <x:v>312</x:v>
+      </x:c>
+      <x:c r="H35" s="0" t="s">
+        <x:v>313</x:v>
+      </x:c>
+      <x:c r="I35" s="0" t="s">
+        <x:v>314</x:v>
+      </x:c>
+      <x:c r="J35" s="0" t="s">
+        <x:v>315</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/routes.xlsx
+++ b/routes.xlsx
@@ -76,7 +76,7 @@
     <x:t>重点人群建库</x:t>
   </x:si>
   <x:si>
-    <x:t>节点</x:t>
+    <x:t>顶级菜单</x:t>
   </x:si>
   <x:si>
     <x:t>重点人群信息管理</x:t>
@@ -130,7 +130,7 @@
     <x:t>重点人群建库</x:t>
   </x:si>
   <x:si>
-    <x:t>节点</x:t>
+    <x:t>顶级菜单</x:t>
   </x:si>
   <x:si>
     <x:t>重点人像建模管理</x:t>
@@ -211,7 +211,7 @@
     <x:t>重点人群建库</x:t>
   </x:si>
   <x:si>
-    <x:t>节点</x:t>
+    <x:t>顶级菜单</x:t>
   </x:si>
   <x:si>
     <x:t>标签管理</x:t>
@@ -265,7 +265,7 @@
     <x:t>重点人群建库</x:t>
   </x:si>
   <x:si>
-    <x:t>节点</x:t>
+    <x:t>顶级菜单</x:t>
   </x:si>
   <x:si>
     <x:t>人员辖区管理</x:t>
@@ -349,6 +349,276 @@
     <x:t>顶级菜单</x:t>
   </x:si>
   <x:si>
+    <x:t>系统管理</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>系统管理</x:t>
+  </x:si>
+  <x:si>
+    <x:t>顶级菜单</x:t>
+  </x:si>
+  <x:si>
+    <x:t>存储预警</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/sys/warn</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t>nav_maincommand</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>存储预警</x:t>
+  </x:si>
+  <x:si>
+    <x:t>顶级菜单</x:t>
+  </x:si>
+  <x:si>
+    <x:t>存储预警</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/sys/warn/warn</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t>nav_maincommand</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>存储预警</x:t>
+  </x:si>
+  <x:si>
+    <x:t>顶级菜单</x:t>
+  </x:si>
+  <x:si>
+    <x:t>自动备份</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/sys/warn/backup</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t>nav_maincommand</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>存储预警</x:t>
+  </x:si>
+  <x:si>
+    <x:t>顶级菜单</x:t>
+  </x:si>
+  <x:si>
+    <x:t>预警记录</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/sys/warn/record</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t>nav_maincommand</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>存储预警</x:t>
+  </x:si>
+  <x:si>
+    <x:t>顶级菜单</x:t>
+  </x:si>
+  <x:si>
+    <x:t>回滚记录</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/sys/warn/rollback</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t>nav_maincommand</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>系统管理</x:t>
+  </x:si>
+  <x:si>
+    <x:t>顶级菜单</x:t>
+  </x:si>
+  <x:si>
+    <x:t>日志管理</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/sys/log</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t>nav_maincommand</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>日志管理</x:t>
+  </x:si>
+  <x:si>
+    <x:t>顶级菜单</x:t>
+  </x:si>
+  <x:si>
+    <x:t>登录日志</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/sys/log/access</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t>nav_maincommand</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>日志管理</x:t>
+  </x:si>
+  <x:si>
+    <x:t>顶级菜单</x:t>
+  </x:si>
+  <x:si>
+    <x:t>业务日志</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/sys/log/biz</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t>nav_maincommand</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>日志管理</x:t>
+  </x:si>
+  <x:si>
+    <x:t>顶级菜单</x:t>
+  </x:si>
+  <x:si>
+    <x:t>错误日志</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/sys/log/err</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t>否</x:t>
+  </x:si>
+  <x:si>
+    <x:t>nav_maincommand</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>顶级菜单</x:t>
+  </x:si>
+  <x:si>
     <x:t>数据采集</x:t>
   </x:si>
   <x:si>
@@ -373,13 +643,13 @@
     <x:t>数据采集</x:t>
   </x:si>
   <x:si>
-    <x:t>节点</x:t>
+    <x:t>顶级菜单</x:t>
   </x:si>
   <x:si>
     <x:t>离线任务采集</x:t>
   </x:si>
   <x:si>
-    <x:t>/iframe/http://10.8.191.62:7080/web/index.html#/Data-development/taskdev</x:t>
+    <x:t>/iframe/http://51.100.6.122:7080/web/index.html#/Data-development/taskdev</x:t>
   </x:si>
   <x:si>
     <x:t/>
@@ -400,13 +670,13 @@
     <x:t>数据采集</x:t>
   </x:si>
   <x:si>
-    <x:t>节点</x:t>
+    <x:t>顶级菜单</x:t>
   </x:si>
   <x:si>
     <x:t>文件采集</x:t>
   </x:si>
   <x:si>
-    <x:t>/iframe/http://10.8.191.62:7080/web/index.html#/Data-development/collect</x:t>
+    <x:t>/iframe/http://51.100.6.122:7080/web/index.html#/Data-development/collect</x:t>
   </x:si>
   <x:si>
     <x:t/>
@@ -427,13 +697,13 @@
     <x:t>数据采集</x:t>
   </x:si>
   <x:si>
-    <x:t>节点</x:t>
+    <x:t>顶级菜单</x:t>
   </x:si>
   <x:si>
     <x:t>实时任务采集</x:t>
   </x:si>
   <x:si>
-    <x:t>/iframe/http://10.8.191.62:7080/web/index.html#/Data-development/real-time-task</x:t>
+    <x:t>/iframe/http://51.100.6.122:7080/web/index.html#/Data-development/real-time-task</x:t>
   </x:si>
   <x:si>
     <x:t/>
@@ -454,13 +724,13 @@
     <x:t>数据采集</x:t>
   </x:si>
   <x:si>
-    <x:t>节点</x:t>
+    <x:t>顶级菜单</x:t>
   </x:si>
   <x:si>
     <x:t>SQL模板管理</x:t>
   </x:si>
   <x:si>
-    <x:t>/iframe/http://10.8.191.62:7080/web/index.html#/Data-development/sql-template</x:t>
+    <x:t>/iframe/http://51.100.6.122:7080/web/index.html#/Data-development/sql-template</x:t>
   </x:si>
   <x:si>
     <x:t/>
@@ -481,13 +751,13 @@
     <x:t>数据采集</x:t>
   </x:si>
   <x:si>
-    <x:t>节点</x:t>
+    <x:t>顶级菜单</x:t>
   </x:si>
   <x:si>
     <x:t>任务标签</x:t>
   </x:si>
   <x:si>
-    <x:t>/iframe/http://10.8.191.62:7080/web/index.html#/Data-development/task-tag</x:t>
+    <x:t>/iframe/http://51.100.6.122:7080/web/index.html#/Data-development/task-tag</x:t>
   </x:si>
   <x:si>
     <x:t/>
@@ -535,13 +805,13 @@
     <x:t>数据管理</x:t>
   </x:si>
   <x:si>
-    <x:t>节点</x:t>
+    <x:t>顶级菜单</x:t>
   </x:si>
   <x:si>
     <x:t>元数据管理</x:t>
   </x:si>
   <x:si>
-    <x:t>/iframe/http://10.8.191.62:7080/web/index.html#/Data-management/mdata</x:t>
+    <x:t>/iframe/http://51.100.6.122:7080/web/index.html#/Data-management/mdata</x:t>
   </x:si>
   <x:si>
     <x:t/>
@@ -562,13 +832,13 @@
     <x:t>数据管理</x:t>
   </x:si>
   <x:si>
-    <x:t>节点</x:t>
+    <x:t>顶级菜单</x:t>
   </x:si>
   <x:si>
     <x:t>数据源管理</x:t>
   </x:si>
   <x:si>
-    <x:t>/iframe/http://10.8.191.62:7080/web/index.html#/Data-management/datasource</x:t>
+    <x:t>/iframe/http://51.100.6.122:7080/web/index.html#/Data-management/datasource</x:t>
   </x:si>
   <x:si>
     <x:t/>
@@ -589,13 +859,13 @@
     <x:t>数据管理</x:t>
   </x:si>
   <x:si>
-    <x:t>节点</x:t>
+    <x:t>顶级菜单</x:t>
   </x:si>
   <x:si>
     <x:t>文件管理</x:t>
   </x:si>
   <x:si>
-    <x:t>/iframe/http://10.8.191.62:7080/web/index.html#/Data-management/file-management</x:t>
+    <x:t>/iframe/http://51.100.6.122:7080/web/index.html#/Data-management/file-management</x:t>
   </x:si>
   <x:si>
     <x:t/>
@@ -616,13 +886,13 @@
     <x:t>数据管理</x:t>
   </x:si>
   <x:si>
-    <x:t>节点</x:t>
+    <x:t>顶级菜单</x:t>
   </x:si>
   <x:si>
     <x:t>数据字典管理</x:t>
   </x:si>
   <x:si>
-    <x:t>/iframe/http://10.8.191.62:7080/web/index.html#/Data-management/data-dictionary</x:t>
+    <x:t>/iframe/http://51.100.6.122:7080/web/index.html#/Data-management/data-dictionary</x:t>
   </x:si>
   <x:si>
     <x:t/>
@@ -670,283 +940,13 @@
     <x:t>数据资源</x:t>
   </x:si>
   <x:si>
-    <x:t>节点</x:t>
+    <x:t>顶级菜单</x:t>
   </x:si>
   <x:si>
     <x:t>我的资源</x:t>
   </x:si>
   <x:si>
-    <x:t>/iframe/http://10.8.191.62:7080/web/index.html#/Data-catalogue/my-interface</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>否</x:t>
-  </x:si>
-  <x:si>
-    <x:t>否</x:t>
-  </x:si>
-  <x:si>
-    <x:t>nav_maincommand</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>顶级菜单</x:t>
-  </x:si>
-  <x:si>
-    <x:t>综合管理</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>否</x:t>
-  </x:si>
-  <x:si>
-    <x:t>否</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>综合管理</x:t>
-  </x:si>
-  <x:si>
-    <x:t>节点</x:t>
-  </x:si>
-  <x:si>
-    <x:t>存储预警</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>否</x:t>
-  </x:si>
-  <x:si>
-    <x:t>否</x:t>
-  </x:si>
-  <x:si>
-    <x:t>nav_maincommand</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>存储预警</x:t>
-  </x:si>
-  <x:si>
-    <x:t>叶子</x:t>
-  </x:si>
-  <x:si>
-    <x:t>存储预警</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/sys/warn/warn</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>否</x:t>
-  </x:si>
-  <x:si>
-    <x:t>否</x:t>
-  </x:si>
-  <x:si>
-    <x:t>nav_maincommand</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>存储预警</x:t>
-  </x:si>
-  <x:si>
-    <x:t>叶子</x:t>
-  </x:si>
-  <x:si>
-    <x:t>自动备份</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/sys/warn/backup</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>否</x:t>
-  </x:si>
-  <x:si>
-    <x:t>否</x:t>
-  </x:si>
-  <x:si>
-    <x:t>nav_maincommand</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>存储预警</x:t>
-  </x:si>
-  <x:si>
-    <x:t>叶子</x:t>
-  </x:si>
-  <x:si>
-    <x:t>预警记录</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/sys/warn/record</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>否</x:t>
-  </x:si>
-  <x:si>
-    <x:t>否</x:t>
-  </x:si>
-  <x:si>
-    <x:t>nav_maincommand</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>存储预警</x:t>
-  </x:si>
-  <x:si>
-    <x:t>叶子</x:t>
-  </x:si>
-  <x:si>
-    <x:t>回滚记录</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/sys/warn/rollback</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>否</x:t>
-  </x:si>
-  <x:si>
-    <x:t>否</x:t>
-  </x:si>
-  <x:si>
-    <x:t>nav_maincommand</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>综合管理</x:t>
-  </x:si>
-  <x:si>
-    <x:t>节点</x:t>
-  </x:si>
-  <x:si>
-    <x:t>日志管理</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>否</x:t>
-  </x:si>
-  <x:si>
-    <x:t>否</x:t>
-  </x:si>
-  <x:si>
-    <x:t>nav_maincommand</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>日志管理</x:t>
-  </x:si>
-  <x:si>
-    <x:t>叶子</x:t>
-  </x:si>
-  <x:si>
-    <x:t>登录日志</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/sys/log/access</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>否</x:t>
-  </x:si>
-  <x:si>
-    <x:t>否</x:t>
-  </x:si>
-  <x:si>
-    <x:t>nav_maincommand</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>日志管理</x:t>
-  </x:si>
-  <x:si>
-    <x:t>叶子</x:t>
-  </x:si>
-  <x:si>
-    <x:t>业务日志</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/sys/log/biz</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>否</x:t>
-  </x:si>
-  <x:si>
-    <x:t>否</x:t>
-  </x:si>
-  <x:si>
-    <x:t>nav_maincommand</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>日志管理</x:t>
-  </x:si>
-  <x:si>
-    <x:t>叶子</x:t>
-  </x:si>
-  <x:si>
-    <x:t>错误日志</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/sys/log/err</x:t>
+    <x:t>/iframe/http://51.100.6.122:7080/web/index.html#/Data-catalogue/my-interface</x:t>
   </x:si>
   <x:si>
     <x:t/>
@@ -1796,7 +1796,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F15" s="0" t="s">
         <x:v>131</x:v>
@@ -1828,7 +1828,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="E16" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F16" s="0" t="s">
         <x:v>140</x:v>
@@ -1860,7 +1860,7 @@
         <x:v>148</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F17" s="0" t="s">
         <x:v>149</x:v>
@@ -1892,7 +1892,7 @@
         <x:v>157</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>50</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F18" s="0" t="s">
         <x:v>158</x:v>
@@ -1924,7 +1924,7 @@
         <x:v>166</x:v>
       </x:c>
       <x:c r="E19" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F19" s="0" t="s">
         <x:v>167</x:v>
@@ -2052,7 +2052,7 @@
         <x:v>202</x:v>
       </x:c>
       <x:c r="E23" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F23" s="0" t="s">
         <x:v>203</x:v>
@@ -2084,7 +2084,7 @@
         <x:v>211</x:v>
       </x:c>
       <x:c r="E24" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F24" s="0" t="s">
         <x:v>212</x:v>
@@ -2116,7 +2116,7 @@
         <x:v>220</x:v>
       </x:c>
       <x:c r="E25" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F25" s="0" t="s">
         <x:v>221</x:v>
@@ -2148,7 +2148,7 @@
         <x:v>229</x:v>
       </x:c>
       <x:c r="E26" s="0" t="n">
-        <x:v>50</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F26" s="0" t="s">
         <x:v>230</x:v>
@@ -2180,7 +2180,7 @@
         <x:v>238</x:v>
       </x:c>
       <x:c r="E27" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F27" s="0" t="s">
         <x:v>239</x:v>
@@ -2212,7 +2212,7 @@
         <x:v>247</x:v>
       </x:c>
       <x:c r="E28" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="F28" s="0" t="s">
         <x:v>248</x:v>
@@ -2244,7 +2244,7 @@
         <x:v>256</x:v>
       </x:c>
       <x:c r="E29" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F29" s="0" t="s">
         <x:v>257</x:v>
@@ -2276,7 +2276,7 @@
         <x:v>265</x:v>
       </x:c>
       <x:c r="E30" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F30" s="0" t="s">
         <x:v>266</x:v>
@@ -2308,7 +2308,7 @@
         <x:v>274</x:v>
       </x:c>
       <x:c r="E31" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F31" s="0" t="s">
         <x:v>275</x:v>
@@ -2340,7 +2340,7 @@
         <x:v>283</x:v>
       </x:c>
       <x:c r="E32" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F32" s="0" t="s">
         <x:v>284</x:v>
@@ -2372,7 +2372,7 @@
         <x:v>292</x:v>
       </x:c>
       <x:c r="E33" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F33" s="0" t="s">
         <x:v>293</x:v>
@@ -2404,7 +2404,7 @@
         <x:v>301</x:v>
       </x:c>
       <x:c r="E34" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="F34" s="0" t="s">
         <x:v>302</x:v>
@@ -2436,7 +2436,7 @@
         <x:v>310</x:v>
       </x:c>
       <x:c r="E35" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F35" s="0" t="s">
         <x:v>311</x:v>
